--- a/曜璿東命名規則 20240605-2.xlsx
+++ b/曜璿東命名規則 20240605-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72443D87-FF37-4219-859F-C31E7142F9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F9EED-261B-4182-BF9D-E0AEA9A9D0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15720" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命名規則" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="3324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12068" uniqueCount="3325">
   <si>
     <t>電阻</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -16597,6 +16597,10 @@
       </rPr>
       <t>Ω</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18396,6 +18400,33 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -18431,33 +18462,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -18759,10 +18763,10 @@
   <dimension ref="B1:W311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" x14ac:dyDescent="0.3"/>
@@ -18883,16 +18887,16 @@
       <c r="G3" s="193" t="s">
         <v>3320</v>
       </c>
-      <c r="H3" s="275">
+      <c r="H3" s="263">
         <v>1</v>
       </c>
-      <c r="I3" s="275" t="s">
+      <c r="I3" s="263" t="s">
         <v>2747</v>
       </c>
-      <c r="J3" s="278" t="s">
+      <c r="J3" s="266" t="s">
         <v>2752</v>
       </c>
-      <c r="K3" s="278" t="s">
+      <c r="K3" s="266" t="s">
         <v>2748</v>
       </c>
       <c r="L3" s="250">
@@ -18949,10 +18953,10 @@
       <c r="G4" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="279"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="267"/>
+      <c r="K4" s="267"/>
       <c r="L4" s="252">
         <v>2</v>
       </c>
@@ -19007,10 +19011,10 @@
       <c r="G5" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="276"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="279"/>
-      <c r="K5" s="279"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
       <c r="L5" s="252">
         <v>3</v>
       </c>
@@ -19065,10 +19069,10 @@
       <c r="G6" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="276"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="279"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
+      <c r="J6" s="267"/>
+      <c r="K6" s="267"/>
       <c r="L6" s="252">
         <v>4</v>
       </c>
@@ -19123,10 +19127,10 @@
       <c r="G7" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="276"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="279"/>
-      <c r="K7" s="279"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
       <c r="L7" s="252">
         <v>5</v>
       </c>
@@ -19181,10 +19185,10 @@
       <c r="G8" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="276"/>
-      <c r="I8" s="276"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="279"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="267"/>
       <c r="L8" s="252">
         <v>6</v>
       </c>
@@ -19239,10 +19243,10 @@
       <c r="G9" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="276"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="279"/>
-      <c r="K9" s="279"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="267"/>
+      <c r="K9" s="267"/>
       <c r="L9" s="252">
         <v>7</v>
       </c>
@@ -19297,10 +19301,10 @@
       <c r="G10" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="276"/>
-      <c r="I10" s="276"/>
-      <c r="J10" s="279"/>
-      <c r="K10" s="279"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="264"/>
+      <c r="J10" s="267"/>
+      <c r="K10" s="267"/>
       <c r="L10" s="252">
         <v>8</v>
       </c>
@@ -19355,10 +19359,10 @@
       <c r="G11" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="276"/>
-      <c r="I11" s="276"/>
-      <c r="J11" s="279"/>
-      <c r="K11" s="279"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="264"/>
+      <c r="J11" s="267"/>
+      <c r="K11" s="267"/>
       <c r="L11" s="252">
         <v>9</v>
       </c>
@@ -19409,10 +19413,10 @@
       <c r="G12" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="276"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="279"/>
-      <c r="K12" s="279"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="264"/>
+      <c r="J12" s="267"/>
+      <c r="K12" s="267"/>
       <c r="L12" s="252" t="s">
         <v>10</v>
       </c>
@@ -19463,10 +19467,10 @@
       <c r="G13" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="276"/>
-      <c r="I13" s="276"/>
-      <c r="J13" s="279"/>
-      <c r="K13" s="279"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="267"/>
       <c r="L13" s="252" t="s">
         <v>70</v>
       </c>
@@ -19517,10 +19521,10 @@
       <c r="G14" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="276"/>
-      <c r="I14" s="276"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="279"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="264"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
       <c r="L14" s="252" t="s">
         <v>2752</v>
       </c>
@@ -19559,10 +19563,10 @@
       <c r="E15" s="192"/>
       <c r="F15" s="192"/>
       <c r="G15" s="193"/>
-      <c r="H15" s="276"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="279"/>
+      <c r="H15" s="264"/>
+      <c r="I15" s="264"/>
+      <c r="J15" s="267"/>
+      <c r="K15" s="267"/>
       <c r="L15" s="252" t="s">
         <v>3270</v>
       </c>
@@ -19575,7 +19579,9 @@
       <c r="Q15" s="55"/>
       <c r="R15" s="113"/>
       <c r="S15" s="55"/>
-      <c r="T15" s="60"/>
+      <c r="T15" s="60" t="s">
+        <v>3324</v>
+      </c>
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
       <c r="W15" s="55"/>
@@ -19587,10 +19593,10 @@
       <c r="E16" s="192"/>
       <c r="F16" s="192"/>
       <c r="G16" s="193"/>
-      <c r="H16" s="276"/>
-      <c r="I16" s="276"/>
-      <c r="J16" s="279"/>
-      <c r="K16" s="279"/>
+      <c r="H16" s="264"/>
+      <c r="I16" s="264"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="267"/>
       <c r="L16" s="252" t="s">
         <v>3271</v>
       </c>
@@ -19615,10 +19621,10 @@
       <c r="E17" s="192"/>
       <c r="F17" s="192"/>
       <c r="G17" s="193"/>
-      <c r="H17" s="276"/>
-      <c r="I17" s="276"/>
-      <c r="J17" s="279"/>
-      <c r="K17" s="279"/>
+      <c r="H17" s="264"/>
+      <c r="I17" s="264"/>
+      <c r="J17" s="267"/>
+      <c r="K17" s="267"/>
       <c r="L17" s="252" t="s">
         <v>3272</v>
       </c>
@@ -19643,10 +19649,10 @@
       <c r="E18" s="192"/>
       <c r="F18" s="192"/>
       <c r="G18" s="193"/>
-      <c r="H18" s="276"/>
-      <c r="I18" s="276"/>
-      <c r="J18" s="279"/>
-      <c r="K18" s="279"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="264"/>
+      <c r="J18" s="267"/>
+      <c r="K18" s="267"/>
       <c r="L18" s="252" t="s">
         <v>3273</v>
       </c>
@@ -19671,10 +19677,10 @@
       <c r="E19" s="192"/>
       <c r="F19" s="192"/>
       <c r="G19" s="193"/>
-      <c r="H19" s="276"/>
-      <c r="I19" s="276"/>
-      <c r="J19" s="279"/>
-      <c r="K19" s="279"/>
+      <c r="H19" s="264"/>
+      <c r="I19" s="264"/>
+      <c r="J19" s="267"/>
+      <c r="K19" s="267"/>
       <c r="L19" s="252" t="s">
         <v>3274</v>
       </c>
@@ -19699,10 +19705,10 @@
       <c r="E20" s="192"/>
       <c r="F20" s="192"/>
       <c r="G20" s="193"/>
-      <c r="H20" s="276"/>
-      <c r="I20" s="276"/>
-      <c r="J20" s="279"/>
-      <c r="K20" s="279"/>
+      <c r="H20" s="264"/>
+      <c r="I20" s="264"/>
+      <c r="J20" s="267"/>
+      <c r="K20" s="267"/>
       <c r="L20" s="252" t="s">
         <v>3275</v>
       </c>
@@ -19727,10 +19733,10 @@
       <c r="E21" s="192"/>
       <c r="F21" s="192"/>
       <c r="G21" s="193"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="280"/>
-      <c r="K21" s="280"/>
+      <c r="H21" s="265"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="268"/>
+      <c r="K21" s="268"/>
       <c r="L21" s="252" t="s">
         <v>3276</v>
       </c>
@@ -19830,7 +19836,7 @@
       <c r="J23" s="24" t="s">
         <v>2753</v>
       </c>
-      <c r="K23" s="272" t="s">
+      <c r="K23" s="260" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="250">
@@ -19884,7 +19890,7 @@
       <c r="H24" s="29"/>
       <c r="I24" s="31"/>
       <c r="J24" s="114"/>
-      <c r="K24" s="273"/>
+      <c r="K24" s="261"/>
       <c r="L24" s="252">
         <v>2</v>
       </c>
@@ -19936,7 +19942,7 @@
       <c r="H25" s="29"/>
       <c r="I25" s="32"/>
       <c r="J25" s="114"/>
-      <c r="K25" s="273"/>
+      <c r="K25" s="261"/>
       <c r="L25" s="252">
         <v>3</v>
       </c>
@@ -19984,7 +19990,7 @@
       <c r="H26" s="29"/>
       <c r="I26" s="32"/>
       <c r="J26" s="114"/>
-      <c r="K26" s="273"/>
+      <c r="K26" s="261"/>
       <c r="L26" s="252">
         <v>4</v>
       </c>
@@ -20032,7 +20038,7 @@
       <c r="H27" s="29"/>
       <c r="I27" s="32"/>
       <c r="J27" s="114"/>
-      <c r="K27" s="273"/>
+      <c r="K27" s="261"/>
       <c r="L27" s="252">
         <v>5</v>
       </c>
@@ -20080,7 +20086,7 @@
       <c r="H28" s="29"/>
       <c r="I28" s="32"/>
       <c r="J28" s="114"/>
-      <c r="K28" s="273"/>
+      <c r="K28" s="261"/>
       <c r="L28" s="252">
         <v>6</v>
       </c>
@@ -20126,7 +20132,7 @@
       <c r="H29" s="29"/>
       <c r="I29" s="32"/>
       <c r="J29" s="114"/>
-      <c r="K29" s="273"/>
+      <c r="K29" s="261"/>
       <c r="L29" s="252">
         <v>7</v>
       </c>
@@ -20174,7 +20180,7 @@
       <c r="H30" s="29"/>
       <c r="I30" s="32"/>
       <c r="J30" s="114"/>
-      <c r="K30" s="273"/>
+      <c r="K30" s="261"/>
       <c r="L30" s="252">
         <v>8</v>
       </c>
@@ -20224,7 +20230,7 @@
       <c r="H31" s="29"/>
       <c r="I31" s="32"/>
       <c r="J31" s="114"/>
-      <c r="K31" s="273"/>
+      <c r="K31" s="261"/>
       <c r="L31" s="252">
         <v>9</v>
       </c>
@@ -20274,7 +20280,7 @@
       <c r="H32" s="29"/>
       <c r="I32" s="32"/>
       <c r="J32" s="114"/>
-      <c r="K32" s="273"/>
+      <c r="K32" s="261"/>
       <c r="L32" s="252" t="s">
         <v>10</v>
       </c>
@@ -20316,7 +20322,7 @@
       <c r="H33" s="29"/>
       <c r="I33" s="32"/>
       <c r="J33" s="114"/>
-      <c r="K33" s="273"/>
+      <c r="K33" s="261"/>
       <c r="L33" s="252" t="s">
         <v>70</v>
       </c>
@@ -20356,7 +20362,7 @@
       <c r="H34" s="29"/>
       <c r="I34" s="32"/>
       <c r="J34" s="114"/>
-      <c r="K34" s="273"/>
+      <c r="K34" s="261"/>
       <c r="L34" s="252" t="s">
         <v>2752</v>
       </c>
@@ -20396,7 +20402,7 @@
       <c r="H35" s="29"/>
       <c r="I35" s="32"/>
       <c r="J35" s="114"/>
-      <c r="K35" s="273"/>
+      <c r="K35" s="261"/>
       <c r="L35" s="252" t="s">
         <v>3270</v>
       </c>
@@ -20436,7 +20442,7 @@
       <c r="H36" s="29"/>
       <c r="I36" s="32"/>
       <c r="J36" s="114"/>
-      <c r="K36" s="273"/>
+      <c r="K36" s="261"/>
       <c r="L36" s="252" t="s">
         <v>3271</v>
       </c>
@@ -20476,7 +20482,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="32"/>
       <c r="J37" s="114"/>
-      <c r="K37" s="273"/>
+      <c r="K37" s="261"/>
       <c r="L37" s="252" t="s">
         <v>3272</v>
       </c>
@@ -20516,7 +20522,7 @@
       <c r="H38" s="29"/>
       <c r="I38" s="32"/>
       <c r="J38" s="114"/>
-      <c r="K38" s="273"/>
+      <c r="K38" s="261"/>
       <c r="L38" s="252" t="s">
         <v>3273</v>
       </c>
@@ -20556,7 +20562,7 @@
       <c r="H39" s="29"/>
       <c r="I39" s="32"/>
       <c r="J39" s="114"/>
-      <c r="K39" s="273"/>
+      <c r="K39" s="261"/>
       <c r="L39" s="252" t="s">
         <v>3274</v>
       </c>
@@ -20596,7 +20602,7 @@
       <c r="H40" s="29"/>
       <c r="I40" s="32"/>
       <c r="J40" s="114"/>
-      <c r="K40" s="273"/>
+      <c r="K40" s="261"/>
       <c r="L40" s="252" t="s">
         <v>3275</v>
       </c>
@@ -20636,7 +20642,7 @@
       <c r="H41" s="29"/>
       <c r="I41" s="32"/>
       <c r="J41" s="114"/>
-      <c r="K41" s="273"/>
+      <c r="K41" s="261"/>
       <c r="L41" s="252" t="s">
         <v>3276</v>
       </c>
@@ -20676,7 +20682,7 @@
       <c r="H42" s="29"/>
       <c r="I42" s="32"/>
       <c r="J42" s="114"/>
-      <c r="K42" s="273"/>
+      <c r="K42" s="261"/>
       <c r="L42" s="103"/>
       <c r="M42" s="103"/>
       <c r="N42" s="103"/>
@@ -20712,7 +20718,7 @@
       <c r="H43" s="29"/>
       <c r="I43" s="32"/>
       <c r="J43" s="114"/>
-      <c r="K43" s="273"/>
+      <c r="K43" s="261"/>
       <c r="L43" s="103"/>
       <c r="M43" s="103"/>
       <c r="N43" s="103"/>
@@ -20748,7 +20754,7 @@
       <c r="H44" s="29"/>
       <c r="I44" s="32"/>
       <c r="J44" s="114"/>
-      <c r="K44" s="273"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="103"/>
       <c r="M44" s="103"/>
       <c r="N44" s="103"/>
@@ -20784,7 +20790,7 @@
       <c r="H45" s="29"/>
       <c r="I45" s="32"/>
       <c r="J45" s="114"/>
-      <c r="K45" s="273"/>
+      <c r="K45" s="261"/>
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
       <c r="N45" s="103"/>
@@ -20820,7 +20826,7 @@
       <c r="H46" s="29"/>
       <c r="I46" s="32"/>
       <c r="J46" s="114"/>
-      <c r="K46" s="273"/>
+      <c r="K46" s="261"/>
       <c r="L46" s="103"/>
       <c r="M46" s="103"/>
       <c r="N46" s="103"/>
@@ -20856,7 +20862,7 @@
       <c r="H47" s="29"/>
       <c r="I47" s="32"/>
       <c r="J47" s="114"/>
-      <c r="K47" s="273"/>
+      <c r="K47" s="261"/>
       <c r="L47" s="103"/>
       <c r="M47" s="103"/>
       <c r="N47" s="103"/>
@@ -20892,7 +20898,7 @@
       <c r="H48" s="29"/>
       <c r="I48" s="32"/>
       <c r="J48" s="114"/>
-      <c r="K48" s="273"/>
+      <c r="K48" s="261"/>
       <c r="L48" s="103"/>
       <c r="M48" s="103"/>
       <c r="N48" s="103"/>
@@ -20928,7 +20934,7 @@
       <c r="H49" s="29"/>
       <c r="I49" s="32"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="273"/>
+      <c r="K49" s="261"/>
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
       <c r="N49" s="103"/>
@@ -20964,7 +20970,7 @@
       <c r="H50" s="29"/>
       <c r="I50" s="32"/>
       <c r="J50" s="114"/>
-      <c r="K50" s="273"/>
+      <c r="K50" s="261"/>
       <c r="L50" s="103"/>
       <c r="M50" s="103"/>
       <c r="N50" s="103"/>
@@ -21000,7 +21006,7 @@
       <c r="H51" s="29"/>
       <c r="I51" s="32"/>
       <c r="J51" s="114"/>
-      <c r="K51" s="273"/>
+      <c r="K51" s="261"/>
       <c r="L51" s="103"/>
       <c r="M51" s="103"/>
       <c r="N51" s="103"/>
@@ -21036,7 +21042,7 @@
       <c r="H52" s="29"/>
       <c r="I52" s="32"/>
       <c r="J52" s="114"/>
-      <c r="K52" s="273"/>
+      <c r="K52" s="261"/>
       <c r="L52" s="103"/>
       <c r="M52" s="103"/>
       <c r="N52" s="103"/>
@@ -21072,7 +21078,7 @@
       <c r="H53" s="29"/>
       <c r="I53" s="32"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="273"/>
+      <c r="K53" s="261"/>
       <c r="L53" s="103"/>
       <c r="M53" s="103"/>
       <c r="N53" s="103"/>
@@ -21108,7 +21114,7 @@
       <c r="H54" s="29"/>
       <c r="I54" s="32"/>
       <c r="J54" s="114"/>
-      <c r="K54" s="273"/>
+      <c r="K54" s="261"/>
       <c r="L54" s="103"/>
       <c r="M54" s="103"/>
       <c r="N54" s="103"/>
@@ -21144,7 +21150,7 @@
       <c r="H55" s="29"/>
       <c r="I55" s="32"/>
       <c r="J55" s="114"/>
-      <c r="K55" s="273"/>
+      <c r="K55" s="261"/>
       <c r="L55" s="103"/>
       <c r="M55" s="103"/>
       <c r="N55" s="103"/>
@@ -21180,7 +21186,7 @@
       <c r="H56" s="29"/>
       <c r="I56" s="32"/>
       <c r="J56" s="114"/>
-      <c r="K56" s="273"/>
+      <c r="K56" s="261"/>
       <c r="L56" s="103"/>
       <c r="M56" s="103"/>
       <c r="N56" s="103"/>
@@ -21216,7 +21222,7 @@
       <c r="H57" s="173"/>
       <c r="I57" s="33"/>
       <c r="J57" s="117"/>
-      <c r="K57" s="274"/>
+      <c r="K57" s="262"/>
       <c r="L57" s="103"/>
       <c r="M57" s="103"/>
       <c r="N57" s="103"/>
@@ -21405,10 +21411,10 @@
       <c r="G61" s="192" t="s">
         <v>2854</v>
       </c>
-      <c r="H61" s="266">
+      <c r="H61" s="275">
         <v>1</v>
       </c>
-      <c r="I61" s="269" t="s">
+      <c r="I61" s="278" t="s">
         <v>2746</v>
       </c>
       <c r="J61" s="68" t="s">
@@ -21457,8 +21463,8 @@
       <c r="G62" s="192" t="s">
         <v>1761</v>
       </c>
-      <c r="H62" s="267"/>
-      <c r="I62" s="270"/>
+      <c r="H62" s="276"/>
+      <c r="I62" s="279"/>
       <c r="J62" s="103"/>
       <c r="K62" s="103"/>
       <c r="L62" s="103"/>
@@ -21497,8 +21503,8 @@
       <c r="G63" s="192" t="s">
         <v>459</v>
       </c>
-      <c r="H63" s="267"/>
-      <c r="I63" s="270"/>
+      <c r="H63" s="276"/>
+      <c r="I63" s="279"/>
       <c r="J63" s="103"/>
       <c r="K63" s="103"/>
       <c r="L63" s="103"/>
@@ -21537,8 +21543,8 @@
       <c r="G64" s="192" t="s">
         <v>1765</v>
       </c>
-      <c r="H64" s="268"/>
-      <c r="I64" s="271"/>
+      <c r="H64" s="277"/>
+      <c r="I64" s="280"/>
       <c r="J64" s="103"/>
       <c r="K64" s="103"/>
       <c r="L64" s="103"/>
@@ -21729,10 +21735,10 @@
       <c r="G68" s="192" t="s">
         <v>1772</v>
       </c>
-      <c r="H68" s="266">
+      <c r="H68" s="275">
         <v>1</v>
       </c>
-      <c r="I68" s="269" t="s">
+      <c r="I68" s="278" t="s">
         <v>2746</v>
       </c>
       <c r="J68" s="68" t="s">
@@ -21785,8 +21791,8 @@
       <c r="G69" s="192" t="s">
         <v>617</v>
       </c>
-      <c r="H69" s="267"/>
-      <c r="I69" s="270"/>
+      <c r="H69" s="276"/>
+      <c r="I69" s="279"/>
       <c r="J69" s="103"/>
       <c r="K69" s="103"/>
       <c r="L69" s="103"/>
@@ -21829,8 +21835,8 @@
       <c r="G70" s="192" t="s">
         <v>1776</v>
       </c>
-      <c r="H70" s="267"/>
-      <c r="I70" s="270"/>
+      <c r="H70" s="276"/>
+      <c r="I70" s="279"/>
       <c r="J70" s="103"/>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -21869,8 +21875,8 @@
       <c r="G71" s="192" t="s">
         <v>1779</v>
       </c>
-      <c r="H71" s="268"/>
-      <c r="I71" s="271"/>
+      <c r="H71" s="277"/>
+      <c r="I71" s="280"/>
       <c r="J71" s="103"/>
       <c r="K71" s="103"/>
       <c r="L71" s="103"/>
@@ -21959,10 +21965,10 @@
       <c r="G73" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="H73" s="266">
+      <c r="H73" s="275">
         <v>1</v>
       </c>
-      <c r="I73" s="269" t="s">
+      <c r="I73" s="278" t="s">
         <v>2746</v>
       </c>
       <c r="J73" s="68" t="s">
@@ -22011,8 +22017,8 @@
       <c r="G74" s="192" t="s">
         <v>362</v>
       </c>
-      <c r="H74" s="268"/>
-      <c r="I74" s="271"/>
+      <c r="H74" s="277"/>
+      <c r="I74" s="280"/>
       <c r="J74" s="103"/>
       <c r="K74" s="103"/>
       <c r="L74" s="103"/>
@@ -22305,10 +22311,10 @@
       <c r="G80" s="192" t="s">
         <v>1797</v>
       </c>
-      <c r="H80" s="266">
+      <c r="H80" s="275">
         <v>1</v>
       </c>
-      <c r="I80" s="269" t="s">
+      <c r="I80" s="278" t="s">
         <v>2746</v>
       </c>
       <c r="J80" s="68" t="s">
@@ -22361,8 +22367,8 @@
       <c r="G81" s="192" t="s">
         <v>1799</v>
       </c>
-      <c r="H81" s="268"/>
-      <c r="I81" s="271"/>
+      <c r="H81" s="277"/>
+      <c r="I81" s="280"/>
       <c r="J81" s="103"/>
       <c r="K81" s="103"/>
       <c r="L81" s="103"/>
@@ -22663,10 +22669,10 @@
       <c r="G87" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="H87" s="266">
+      <c r="H87" s="275">
         <v>1</v>
       </c>
-      <c r="I87" s="269" t="s">
+      <c r="I87" s="278" t="s">
         <v>2746</v>
       </c>
       <c r="J87" s="103" t="s">
@@ -22719,8 +22725,8 @@
       <c r="G88" s="192" t="s">
         <v>602</v>
       </c>
-      <c r="H88" s="268"/>
-      <c r="I88" s="271"/>
+      <c r="H88" s="277"/>
+      <c r="I88" s="280"/>
       <c r="J88" s="103"/>
       <c r="K88" s="103"/>
       <c r="L88" s="103"/>
@@ -23237,10 +23243,10 @@
       <c r="G99" s="192" t="s">
         <v>1871</v>
       </c>
-      <c r="H99" s="260">
+      <c r="H99" s="269">
         <v>2</v>
       </c>
-      <c r="I99" s="263" t="s">
+      <c r="I99" s="272" t="s">
         <v>2758</v>
       </c>
       <c r="J99" s="103">
@@ -23293,8 +23299,8 @@
       <c r="G100" s="192" t="s">
         <v>2696</v>
       </c>
-      <c r="H100" s="261"/>
-      <c r="I100" s="264"/>
+      <c r="H100" s="270"/>
+      <c r="I100" s="273"/>
       <c r="J100" s="103"/>
       <c r="K100" s="103"/>
       <c r="L100" s="103"/>
@@ -23337,8 +23343,8 @@
       <c r="G101" s="192" t="s">
         <v>1880</v>
       </c>
-      <c r="H101" s="261"/>
-      <c r="I101" s="264"/>
+      <c r="H101" s="270"/>
+      <c r="I101" s="273"/>
       <c r="J101" s="103"/>
       <c r="K101" s="103"/>
       <c r="L101" s="103"/>
@@ -23377,8 +23383,8 @@
       <c r="G102" s="192" t="s">
         <v>1883</v>
       </c>
-      <c r="H102" s="261"/>
-      <c r="I102" s="264"/>
+      <c r="H102" s="270"/>
+      <c r="I102" s="273"/>
       <c r="J102" s="103"/>
       <c r="K102" s="103"/>
       <c r="L102" s="103"/>
@@ -23417,8 +23423,8 @@
       <c r="G103" s="192" t="s">
         <v>1886</v>
       </c>
-      <c r="H103" s="261"/>
-      <c r="I103" s="264"/>
+      <c r="H103" s="270"/>
+      <c r="I103" s="273"/>
       <c r="J103" s="103"/>
       <c r="K103" s="103"/>
       <c r="L103" s="103"/>
@@ -23457,8 +23463,8 @@
       <c r="G104" s="192" t="s">
         <v>1889</v>
       </c>
-      <c r="H104" s="261"/>
-      <c r="I104" s="264"/>
+      <c r="H104" s="270"/>
+      <c r="I104" s="273"/>
       <c r="J104" s="103"/>
       <c r="K104" s="103"/>
       <c r="L104" s="103"/>
@@ -23497,8 +23503,8 @@
       <c r="G105" s="192" t="s">
         <v>1892</v>
       </c>
-      <c r="H105" s="261"/>
-      <c r="I105" s="264"/>
+      <c r="H105" s="270"/>
+      <c r="I105" s="273"/>
       <c r="J105" s="103"/>
       <c r="K105" s="103"/>
       <c r="L105" s="103"/>
@@ -23537,8 +23543,8 @@
       <c r="G106" s="192" t="s">
         <v>1895</v>
       </c>
-      <c r="H106" s="261"/>
-      <c r="I106" s="264"/>
+      <c r="H106" s="270"/>
+      <c r="I106" s="273"/>
       <c r="J106" s="103"/>
       <c r="K106" s="103"/>
       <c r="L106" s="103"/>
@@ -23577,8 +23583,8 @@
       <c r="G107" s="192" t="s">
         <v>1874</v>
       </c>
-      <c r="H107" s="261"/>
-      <c r="I107" s="264"/>
+      <c r="H107" s="270"/>
+      <c r="I107" s="273"/>
       <c r="J107" s="103"/>
       <c r="K107" s="103"/>
       <c r="L107" s="103"/>
@@ -23617,8 +23623,8 @@
       <c r="G108" s="192" t="s">
         <v>1903</v>
       </c>
-      <c r="H108" s="261"/>
-      <c r="I108" s="264"/>
+      <c r="H108" s="270"/>
+      <c r="I108" s="273"/>
       <c r="J108" s="103"/>
       <c r="K108" s="103"/>
       <c r="L108" s="103"/>
@@ -23657,8 +23663,8 @@
       <c r="G109" s="192" t="s">
         <v>466</v>
       </c>
-      <c r="H109" s="261"/>
-      <c r="I109" s="264"/>
+      <c r="H109" s="270"/>
+      <c r="I109" s="273"/>
       <c r="J109" s="103"/>
       <c r="K109" s="103"/>
       <c r="L109" s="103"/>
@@ -23697,8 +23703,8 @@
       <c r="G110" s="192" t="s">
         <v>1303</v>
       </c>
-      <c r="H110" s="261"/>
-      <c r="I110" s="264"/>
+      <c r="H110" s="270"/>
+      <c r="I110" s="273"/>
       <c r="J110" s="103"/>
       <c r="K110" s="103"/>
       <c r="L110" s="103"/>
@@ -23737,8 +23743,8 @@
       <c r="G111" s="192" t="s">
         <v>1906</v>
       </c>
-      <c r="H111" s="262"/>
-      <c r="I111" s="265"/>
+      <c r="H111" s="271"/>
+      <c r="I111" s="274"/>
       <c r="J111" s="103"/>
       <c r="K111" s="103"/>
       <c r="L111" s="103"/>
@@ -27730,11 +27736,6 @@
     <row r="311" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K23:K57"/>
-    <mergeCell ref="H3:H21"/>
-    <mergeCell ref="I3:I21"/>
-    <mergeCell ref="J3:J21"/>
-    <mergeCell ref="K3:K21"/>
     <mergeCell ref="H99:H111"/>
     <mergeCell ref="I99:I111"/>
     <mergeCell ref="H61:H64"/>
@@ -27747,6 +27748,11 @@
     <mergeCell ref="I87:I88"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="I80:I81"/>
+    <mergeCell ref="K23:K57"/>
+    <mergeCell ref="H3:H21"/>
+    <mergeCell ref="I3:I21"/>
+    <mergeCell ref="J3:J21"/>
+    <mergeCell ref="K3:K21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27852,16 +27858,16 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="275">
+      <c r="B4" s="263">
         <v>1</v>
       </c>
       <c r="C4" s="281" t="s">
         <v>2747</v>
       </c>
-      <c r="D4" s="278" t="s">
+      <c r="D4" s="266" t="s">
         <v>2752</v>
       </c>
-      <c r="E4" s="278" t="s">
+      <c r="E4" s="266" t="s">
         <v>2748</v>
       </c>
       <c r="F4" s="250">
@@ -27912,10 +27918,10 @@
       <c r="U4" s="53"/>
     </row>
     <row r="5" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="276"/>
+      <c r="B5" s="264"/>
       <c r="C5" s="282"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="267"/>
       <c r="F5" s="252">
         <v>2</v>
       </c>
@@ -27964,10 +27970,10 @@
       <c r="U5" s="55"/>
     </row>
     <row r="6" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="276"/>
+      <c r="B6" s="264"/>
       <c r="C6" s="282"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
       <c r="F6" s="252">
         <v>3</v>
       </c>
@@ -28016,10 +28022,10 @@
       <c r="U6" s="55"/>
     </row>
     <row r="7" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="276"/>
+      <c r="B7" s="264"/>
       <c r="C7" s="282"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="267"/>
       <c r="F7" s="252">
         <v>4</v>
       </c>
@@ -28068,10 +28074,10 @@
       <c r="U7" s="55"/>
     </row>
     <row r="8" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="276"/>
+      <c r="B8" s="264"/>
       <c r="C8" s="282"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
       <c r="F8" s="252">
         <v>5</v>
       </c>
@@ -28120,10 +28126,10 @@
       <c r="U8" s="55"/>
     </row>
     <row r="9" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="276"/>
+      <c r="B9" s="264"/>
       <c r="C9" s="282"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
       <c r="F9" s="252">
         <v>6</v>
       </c>
@@ -28172,10 +28178,10 @@
       <c r="U9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="276"/>
+      <c r="B10" s="264"/>
       <c r="C10" s="282"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
       <c r="F10" s="252">
         <v>7</v>
       </c>
@@ -28224,10 +28230,10 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="276"/>
+      <c r="B11" s="264"/>
       <c r="C11" s="282"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
       <c r="F11" s="252">
         <v>8</v>
       </c>
@@ -28276,10 +28282,10 @@
       <c r="U11" s="55"/>
     </row>
     <row r="12" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="276"/>
+      <c r="B12" s="264"/>
       <c r="C12" s="282"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="279"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="267"/>
       <c r="F12" s="252">
         <v>9</v>
       </c>
@@ -28318,10 +28324,10 @@
       <c r="U12" s="55"/>
     </row>
     <row r="13" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="276"/>
+      <c r="B13" s="264"/>
       <c r="C13" s="282"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
       <c r="F13" s="252" t="s">
         <v>10</v>
       </c>
@@ -28360,10 +28366,10 @@
       <c r="U13" s="55"/>
     </row>
     <row r="14" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="276"/>
+      <c r="B14" s="264"/>
       <c r="C14" s="282"/>
-      <c r="D14" s="279"/>
-      <c r="E14" s="279"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
       <c r="F14" s="252" t="s">
         <v>70</v>
       </c>
@@ -28398,10 +28404,10 @@
       <c r="U14" s="55"/>
     </row>
     <row r="15" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="276"/>
+      <c r="B15" s="264"/>
       <c r="C15" s="282"/>
-      <c r="D15" s="279"/>
-      <c r="E15" s="279"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
       <c r="F15" s="252" t="s">
         <v>2752</v>
       </c>
@@ -28436,10 +28442,10 @@
       <c r="U15" s="55"/>
     </row>
     <row r="16" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="276"/>
+      <c r="B16" s="264"/>
       <c r="C16" s="282"/>
-      <c r="D16" s="279"/>
-      <c r="E16" s="279"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
       <c r="F16" s="252" t="s">
         <v>3270</v>
       </c>
@@ -28462,10 +28468,10 @@
       <c r="U16" s="248"/>
     </row>
     <row r="17" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="276"/>
+      <c r="B17" s="264"/>
       <c r="C17" s="282"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="279"/>
+      <c r="D17" s="267"/>
+      <c r="E17" s="267"/>
       <c r="F17" s="252" t="s">
         <v>3271</v>
       </c>
@@ -28488,10 +28494,10 @@
       <c r="U17" s="248"/>
     </row>
     <row r="18" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="276"/>
+      <c r="B18" s="264"/>
       <c r="C18" s="282"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="279"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
       <c r="F18" s="252" t="s">
         <v>3272</v>
       </c>
@@ -28514,10 +28520,10 @@
       <c r="U18" s="248"/>
     </row>
     <row r="19" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="276"/>
+      <c r="B19" s="264"/>
       <c r="C19" s="282"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
       <c r="F19" s="252" t="s">
         <v>3273</v>
       </c>
@@ -28540,10 +28546,10 @@
       <c r="U19" s="248"/>
     </row>
     <row r="20" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="276"/>
+      <c r="B20" s="264"/>
       <c r="C20" s="282"/>
-      <c r="D20" s="279"/>
-      <c r="E20" s="279"/>
+      <c r="D20" s="267"/>
+      <c r="E20" s="267"/>
       <c r="F20" s="252" t="s">
         <v>3274</v>
       </c>
@@ -28566,10 +28572,10 @@
       <c r="U20" s="248"/>
     </row>
     <row r="21" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="276"/>
+      <c r="B21" s="264"/>
       <c r="C21" s="282"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
+      <c r="D21" s="267"/>
+      <c r="E21" s="267"/>
       <c r="F21" s="252" t="s">
         <v>3275</v>
       </c>
@@ -28592,10 +28598,10 @@
       <c r="U21" s="248"/>
     </row>
     <row r="22" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="277"/>
+      <c r="B22" s="265"/>
       <c r="C22" s="283"/>
-      <c r="D22" s="280"/>
-      <c r="E22" s="280"/>
+      <c r="D22" s="268"/>
+      <c r="E22" s="268"/>
       <c r="F22" s="252" t="s">
         <v>3276</v>
       </c>

--- a/曜璿東命名規則 20240605-2.xlsx
+++ b/曜璿東命名規則 20240605-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F9EED-261B-4182-BF9D-E0AEA9A9D0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE687D40-3FDF-46C7-8134-FF10006B9705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-960" windowWidth="29040" windowHeight="15720" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命名規則" sheetId="5" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="dip輸入 查詢正展開" sheetId="9" r:id="rId6"/>
     <sheet name="電阻值字碼" sheetId="10" r:id="rId7"/>
     <sheet name="工作表2" sheetId="11" r:id="rId8"/>
+    <sheet name="供應商編碼" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'dip輸入 查詢正展開'!$A$1:$K$60</definedName>
@@ -43,101 +44,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12068" uniqueCount="3325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12093" uniqueCount="3350">
   <si>
     <t>電阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>廠商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>%數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0561</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>料號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>50V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>250V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>630V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3KV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>華新科</t>
   </si>
   <si>
     <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>零件尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>供應商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>電阻值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      B　± 0.10pF</t>
@@ -168,37 +169,37 @@
   </si>
   <si>
     <t>3.編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4.編號</t>
   </si>
   <si>
     <t>4.編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8.編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5.6.7編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9.編號</t>
   </si>
   <si>
     <t>9.編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>電壓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>廠商</t>
@@ -208,7 +209,7 @@
   </si>
   <si>
     <t>10.11.編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>%數</t>
@@ -221,31 +222,31 @@
   </si>
   <si>
     <t>G±2％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>J±5％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K±10％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>M±20％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5.6.7,8編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>電容值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>國巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1KΩ</t>
@@ -298,7 +299,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,7 +332,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -354,7 +355,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -377,19 +378,19 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1KV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>02</t>
@@ -535,7 +536,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -596,7 +597,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -657,7 +658,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -680,7 +681,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -703,19 +704,19 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>風華</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>光頡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公司名稱 : 曜璿東科技股份有限公司</t>
@@ -8152,7 +8153,7 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BOM版本</t>
@@ -8174,11 +8175,11 @@
   </si>
   <si>
     <t>ABS10-T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ABS_1A_1000V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BD2</t>
@@ -8204,15 +8205,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TCC0603X7R104K500CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_0603_104_50V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8235,18 +8236,18 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C1, C4, C9, C17, C18, C19, C38, C44, C45, C59, C60, C63, C65, C94, CS1, CS4, NC2, C132, NC129</t>
   </si>
   <si>
     <t>TCC0603COG200J500CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NPO_0603_20P_50V_5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8269,62 +8270,62 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C3, C8, C12, C72, C75, C117, C120</t>
   </si>
   <si>
     <t>CL31B106KBHNNNE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_1206_106_50V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C5, C10, C62, CE4, CE5, CE6, CE7, NC3, NC4, NC5, NC6, NC7</t>
   </si>
   <si>
     <t>TCC0603COG101J500CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NPO_0603_101_50V_5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C6, C41, C57, C92, C101, C103, C104, C112, C113</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_0603_102_50V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C11, C14, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C43, C74, C77, C80, C86, C87, C88, C89, C90, C91, C98, C99, C107, C108, C109, C114, C115, C123, C200, CS18</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_0603_103_50V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C13, C47, C48, C50, C58, C61, C64, C73, C81, C83, C85, C100, C110, C111, C116, C121, C125, C131, CS3, NC128</t>
   </si>
   <si>
     <t>X7R_10uF_0805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_0805_106_16V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C15, C40, C46, C49, C51, C96, C105, C106, C130, NC127</t>
@@ -8334,11 +8335,11 @@
   </si>
   <si>
     <t>CC0603KRX7R8BB105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_0603_105_25V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C42, C66, C67, C68, C69, C70, C71, C76, C78, C79, C82, C118, C119, C122, C124, C126, CS2</t>
@@ -8348,11 +8349,11 @@
   </si>
   <si>
     <t>CC0805KRX7RYBB102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_0805_102_250V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C52, C53, C54</t>
@@ -8362,11 +8363,11 @@
   </si>
   <si>
     <t>TCC0603X7R224K250CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_0603_224_25V_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C55</t>
@@ -8376,11 +8377,11 @@
   </si>
   <si>
     <t>1210B331K102NT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_1210_331_1KV_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CH2</t>
@@ -8390,33 +8391,33 @@
   </si>
   <si>
     <t>1206B103K102CT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R_1206_103_1KV_10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CH5</t>
   </si>
   <si>
     <t>SOD123_L1N4148WT1G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SOD123_L1N4148WT1G_200mA_100V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D1, D2, D3, D9, D14, D20, DS3, DS4, DS5, DT1, DT2, ND1</t>
   </si>
   <si>
     <t>DO214AB_GS10M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DO214AB_GS10M_10A_1000V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D4</t>
@@ -8426,7 +8427,7 @@
   </si>
   <si>
     <t>DO214AC_M7_1A_1000V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D7, D8, D10, D11, D12, D13, D15</t>
@@ -8436,7 +8437,7 @@
   </si>
   <si>
     <t>DO214AC_ES1D_1A_200V_35ns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D17, DS1, DS2</t>
@@ -8446,7 +8447,7 @@
   </si>
   <si>
     <t>DO214AA_SS210_2A_100V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D18</t>
@@ -8456,47 +8457,47 @@
   </si>
   <si>
     <t>DO214AA_SS26_2A_60V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D19</t>
   </si>
   <si>
     <t>KDS-1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DL1, DL2</t>
   </si>
   <si>
     <t>SOD123_MMSZ5242B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SOD123_12V_5%_500mW_20mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DZ3, DZ4</t>
   </si>
   <si>
     <t>SOD123_MMSZ5226B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SOD123_MMSZ5226B_3_3V_5%_500mW_20mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DZ7</t>
   </si>
   <si>
     <t>SOD123_LMSZ5248BT1G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SOD123_LMSZ5248BT1G_18V_0.5W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DZ8, DZ9, DZ10, DZ11, DZ12, DZ13, DZ14, DZ15</t>
@@ -8506,11 +8507,11 @@
   </si>
   <si>
     <t>RC1206JR-071RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1206_1R_5%_1_4W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1R,5%,1/4W,1206;(国巨)</t>
@@ -8520,11 +8521,11 @@
   </si>
   <si>
     <t>SOT23_LMBT3904LT1G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SOT23_NPN_40V_0_2A_225mW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NQ2, Q1, Q2, Q6, Q9, Q11, Q12, Q13, Q17, Q18, QS1, QS2</t>
@@ -8534,73 +8535,73 @@
   </si>
   <si>
     <t>RC0805JR-070RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0805_0R_5%_1_8W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NR1, NR8, NR11, RJ1, RJ2, RJ3, RJ5, RJS2, RJS3</t>
   </si>
   <si>
     <t>MCSE28EFHR025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2816_25mR_1%_3W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NR3, NR5, RS1</t>
   </si>
   <si>
     <t>RC1210JR-072R2L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1210_2R2_5%_1_2W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NR14, R28, R29, R34, R35</t>
   </si>
   <si>
     <t>RC0603FR-071KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0603_1K_1%_1_10W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NR15, R4, R5, R23, R32, R33, R55, R68, R70, R82, R85, R98, R107, R122, R124, R137, R138, R143, R153, R165, R172, R197, R1001, RB12, RB14, RB19</t>
   </si>
   <si>
     <t>RC0603FR-0710KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0603_10K_1%_1_10W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NR16, R6, R9, R10, R22, R24, R26, R27, R36, R37, R57, R58, R69, R71, R72, R81, R83, R84, R95, R112, R113, R130, R132, R133, R134, R135, R140, R141, R142, R144, R154, R194, R195, R196, R198, R200, RB8, RB13, RB18</t>
   </si>
   <si>
     <t>RC0805FR-07100RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0805_100R_1%_1_8W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NR99, R199, RB21</t>
   </si>
   <si>
     <t>SOT23-5_RS621KXF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8620,224 +8621,224 @@
       </rPr>
       <t>,-40 to 125°C,SOT23-5</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NU1, U2, U4, U9, U20, U21, U22</t>
   </si>
   <si>
     <t>SOT23_LMBT3906LT1G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Q5</t>
   </si>
   <si>
     <t>SOT23_2N7002K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Q10</t>
   </si>
   <si>
     <t>SOT23_LTL431ALT1G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Q15, Q16</t>
   </si>
   <si>
     <t>RC1206FR-07432KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R1, R2, R3, RB11</t>
   </si>
   <si>
     <t>RC0805JR-0722RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R7, R21, R59, R74, R8</t>
   </si>
   <si>
     <t>RC1206JR-070RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R11, R114</t>
   </si>
   <si>
     <t>RC0805FR-0733KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R15, R38, R90, R115</t>
   </si>
   <si>
     <t>RC1206FR-071M1L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R18, R19, R20, R40, R42, R43, R44, R45, R46, R184, R186, R188, R189, R190, R191</t>
   </si>
   <si>
     <t>RC0603FR-0733KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R39, R185, R187</t>
   </si>
   <si>
     <t>RC0603FR-07100RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R41, R75, R76, R77, R78, R79, R80, R94, R101, R108, R109, R110, R126, R127, R128, R129, R155, R156, R157, R158, R159, R160, R166, R182, R183</t>
   </si>
   <si>
     <t>RC1206FR-07100KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R47, R48, R49, R61, R145, R146, R147, R148, RB7</t>
   </si>
   <si>
     <t>RC2512JK-07150KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R50, R52, R53, R56, R60</t>
   </si>
   <si>
     <t>RC1206FR-0710KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R51</t>
   </si>
   <si>
     <t>RC1206FR-0768RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R62</t>
   </si>
   <si>
     <t>RC0805FR-0722KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R63, R64</t>
   </si>
   <si>
     <t>RC0805FR-078K2L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R65</t>
   </si>
   <si>
     <t>RC0603FR-074K7L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R66, R73, R118, R121, R123, R125, R131, RB9, R152</t>
   </si>
   <si>
     <t>RC0603FR-072KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R67</t>
   </si>
   <si>
     <t>RC0603FR-071K2L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R86, R91, R162, R163, R175, R176, R178, R179, RB16</t>
   </si>
   <si>
     <t>RC0603FR-076K2L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R92, R161, R164, R174, R177, R180, R181, RB17</t>
   </si>
   <si>
     <t>RC1206FR-076K8L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R103, RB15</t>
   </si>
   <si>
     <t>RC2512JK-0756KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R104, R105</t>
   </si>
   <si>
     <t>RC0603FR-074R7L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R106</t>
   </si>
   <si>
     <t>RC0603FR-07330RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R111</t>
   </si>
   <si>
     <t>RC1206FR-073K3L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R116, R116A, R117</t>
   </si>
   <si>
     <t>RC0603FR-07150KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R136, R193</t>
   </si>
   <si>
     <t>RC0603FR-07470RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R139, R192</t>
   </si>
   <si>
     <t>RC0603JR-070RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R168, RTS2</t>
   </si>
   <si>
     <t>RC0603FR-075K1L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R201</t>
   </si>
   <si>
     <t>PT2512FK-7W0R1L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RS2, RS3, RS4, RS5</t>
   </si>
   <si>
     <t>SOIC8_ID5S609SEC-R1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8906,14 +8907,14 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
     <t>SOP4_LTV-356T-TP1-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8987,14 +8988,14 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U5, U6, U7, U14, U19, US1, US2</t>
   </si>
   <si>
     <t>TO252_CJ78M05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9051,14 +9052,14 @@
       </rPr>
       <t>,TO-252</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U13</t>
   </si>
   <si>
     <t>SOP16_ULN2003G(UTC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9113,7 +9114,7 @@
       </rPr>
       <t>,SOP-16;ULN2003G(UTC)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7位达林顿阵列驱动器,-20℃ to 85℃,SOP-16;ULN2003G(UTC)</t>
@@ -9123,7 +9124,7 @@
   </si>
   <si>
     <t>LQFP64_MM32SPIN37PSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9178,14 +9179,14 @@
       </rPr>
       <t>,LQFP64 E version</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U17</t>
   </si>
   <si>
     <t>LQFP48_MM32SPIN06PF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9240,21 +9241,21 @@
       </rPr>
       <t>,LQFP48 Ver. E</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U23</t>
   </si>
   <si>
     <t>RC2512FK-0720KL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RB1, RB2, RB3, RB4, RB5, RB6</t>
   </si>
   <si>
     <t>DO214A_CP4SMA6_8CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9274,7 +9275,7 @@
       </rPr>
       <t>,40A(Ipp)/5.8V(VRWM),400W,DO-214AC,P4SMA6.8CA</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DZ5, DZ6</t>
@@ -9326,7 +9327,7 @@
       </rPr>
       <t>驱动板</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2024/04/30  11:01:10</t>
@@ -9364,7 +9365,7 @@
       </rPr>
       <t>: C000324</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CE3, CES3</t>
@@ -9410,11 +9411,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>47μF//50V,105℃,2000时,φ6.3*11.5,P2.5编带OLKCO901H470MJ(永銘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CE9</t>
@@ -9457,7 +9458,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9514,7 +9515,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CE10, CE11, CE12, CE15, CE16, CE17</t>
@@ -9689,31 +9690,31 @@
   </si>
   <si>
     <t>SMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>電容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9736,7 +9737,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9759,7 +9760,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4R7</t>
@@ -9769,7 +9770,7 @@
   </si>
   <si>
     <t>DIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9784,7 +9785,7 @@
       </rPr>
       <t>貼片穩壓二極管</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9825,7 +9826,7 @@
       </rPr>
       <t>(Rectifier Diode)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9859,7 +9860,7 @@
       </rPr>
       <t>Schottky diode)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9893,7 +9894,7 @@
       </rPr>
       <t>zener diode)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9944,7 +9945,7 @@
       </rPr>
       <t>SWITCHING DIODE)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9993,7 +9994,7 @@
       </rPr>
       <t>高效率二極管</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10042,22 +10043,22 @@
       </rPr>
       <t>(light-emitting diode)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
     <t>D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
@@ -10091,7 +10092,7 @@
       </rPr>
       <t>(瞬态电压抑制二极管)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10134,7 +10135,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10157,33 +10158,33 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25mR</t>
   </si>
   <si>
     <t>0257</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ICP璦司柏</t>
   </si>
   <si>
     <t>除以10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>除以100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D100003000</t>
@@ -10193,43 +10194,43 @@
   </si>
   <si>
     <t>1D200001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D200002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D300001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D400001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D500001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D600001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D700001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1M200001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1M100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1M100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10252,7 +10253,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10284,7 +10285,7 @@
       </rPr>
       <t xml:space="preserve"> Single Phase Bridge</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10318,7 +10319,7 @@
       </rPr>
       <t>Triode</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10341,7 +10342,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10383,7 +10384,7 @@
       </rPr>
       <t>線性穩壓器</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10423,11 +10424,11 @@
       </rPr>
       <t>OCEP</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二極體</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>種類</t>
@@ -10437,19 +10438,19 @@
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MCU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 橋堆</t>
@@ -10469,7 +10470,7 @@
       </rPr>
       <t>％</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肖特基</t>
@@ -10482,7 +10483,7 @@
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三極管</t>
@@ -10501,35 +10502,35 @@
   </si>
   <si>
     <t>I1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>橋堆  Single Phase Bridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1I100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1I100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1I100003000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1I100004000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1B100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10552,19 +10553,19 @@
       </rPr>
       <t>IC</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>光耦</t>
@@ -10608,22 +10609,22 @@
       </rPr>
       <t>01000</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[00021] MOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>貼片三極管  Triode</t>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LDO  線性穩壓器</t>
@@ -10633,31 +10634,31 @@
   </si>
   <si>
     <t>4,5,6,7,8編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1T100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1T100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1L100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>00002</t>
@@ -10670,41 +10671,41 @@
   </si>
   <si>
     <t>[00004-4] PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PCB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>零件名稱</t>
   </si>
   <si>
     <t>零件名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RS621KXF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PCB名稱</t>
   </si>
   <si>
     <t>PCB名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.編號</t>
@@ -10728,11 +10729,11 @@
       </rPr>
       <t>機構元件</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>OST-MP-220-17-03 V2.0 PCB_SMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10747,14 +10748,14 @@
       </rPr>
       <t>鋁電解電容</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5.6.7編號</t>
   </si>
   <si>
     <t>450MXG470MEFCLN35X40 470uF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8.編號</t>
@@ -10764,22 +10765,22 @@
   </si>
   <si>
     <t>PSS20S92F6-AG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[00007] IPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> IPM</t>
   </si>
   <si>
     <t>2I100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2P100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10794,7 +10795,7 @@
       </rPr>
       <t>電感變壓器</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10809,18 +10810,18 @@
       </rPr>
       <t>橋堆</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0002</t>
   </si>
   <si>
     <t>2B100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2D100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10852,11 +10853,11 @@
       </rPr>
       <t>稳壓二極管</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>稳壓二極管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二極管</t>
@@ -10882,7 +10883,7 @@
       </rPr>
       <t>IC</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10897,11 +10898,11 @@
       </rPr>
       <t>放電管</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EM3600XS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0003</t>
@@ -10948,7 +10949,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10992,7 +10993,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0004</t>
@@ -11056,22 +11057,22 @@
       </rPr>
       <t>Thermistor</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>熱敏電阻 Thermistor</t>
   </si>
   <si>
     <t>2T100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2T100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2T100003000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11095,34 +11096,34 @@
       </rPr>
       <t>Relay</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>繼電器 Relay</t>
   </si>
   <si>
     <t>R1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2R100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[00016] IGBT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2I2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2I200001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IGBT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11145,26 +11146,26 @@
       </rPr>
       <t xml:space="preserve">fuse </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">保險絲 fuse </t>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2F100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2F100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11187,22 +11188,22 @@
       </rPr>
       <t>Xtal</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>晶振 Xtal</t>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2X100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11217,7 +11218,7 @@
       </rPr>
       <t>絕緣導熱片</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11232,15 +11233,15 @@
       </rPr>
       <t>整流二極管</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2D300001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11263,11 +11264,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TG-ALC-L38 W20 T0.3 4.2W/mk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11290,42 +11291,42 @@
       </rPr>
       <t>wire stock</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>線材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>線材 wire stock</t>
   </si>
   <si>
     <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>W1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W100003000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W100004000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W100005000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11340,15 +11341,15 @@
       </rPr>
       <t>開關二極管</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2D400001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11372,26 +11373,26 @@
       </rPr>
       <t>Metal Oxide Varistors</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2M100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 壓敏電阻 Metal Oxide Varistors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 壓敏電阻</t>
   </si>
   <si>
     <t>2L100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2L100002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2L100003000</t>
@@ -11404,15 +11405,15 @@
   </si>
   <si>
     <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>料號</t>
@@ -11430,7 +11431,7 @@
       </rPr>
       <t>安規電容</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11445,7 +11446,7 @@
       </rPr>
       <t>薄膜電容</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11468,7 +11469,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11493,7 +11494,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>佛山華達</t>
@@ -11521,7 +11522,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>南京新玉躍</t>
@@ -11549,11 +11550,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>永銘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11576,7 +11577,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11601,7 +11602,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11626,7 +11627,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11651,7 +11652,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11712,7 +11713,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11773,7 +11774,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11834,7 +11835,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11895,7 +11896,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11956,7 +11957,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12017,7 +12018,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12040,7 +12041,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12070,143 +12071,143 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1I1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2I1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2L1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>I2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>I3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2I200002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2I300001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2R1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2I3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1O1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2W1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1L1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2M1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1D6</t>
@@ -12216,11 +12217,11 @@
   </si>
   <si>
     <t>組合階段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>階段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12255,11 +12256,11 @@
       </rPr>
       <t>組合名稱</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[組合編碼]組合名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>代碼為3位數精度5%數字代碼=電阻阻值</t>
@@ -12728,27 +12729,27 @@
   </si>
   <si>
     <t>470/100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>680/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10/100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>68R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25mR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>誤差值1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12787,7 +12788,7 @@
       </rPr>
       <t>500</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12826,7 +12827,7 @@
       </rPr>
       <t>100</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12865,7 +12866,7 @@
       </rPr>
       <t>100</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12904,27 +12905,27 @@
       </rPr>
       <t>100</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4R7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>450v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>300v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>310V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>400V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12954,7 +12955,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12984,7 +12985,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13014,7 +13015,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13044,7 +13045,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13074,7 +13075,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13104,7 +13105,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13134,7 +13135,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13164,7 +13165,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13194,7 +13195,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13224,7 +13225,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13254,7 +13255,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13284,7 +13285,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13314,7 +13315,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13344,7 +13345,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20P</t>
@@ -13425,7 +13426,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13503,7 +13504,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13581,7 +13582,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13659,7 +13660,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13737,7 +13738,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13815,7 +13816,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13893,7 +13894,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13971,7 +13972,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14049,19 +14050,19 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1P100001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>450V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>300V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14084,11 +14085,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>零件名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14113,11 +14114,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>廠商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14142,11 +14143,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仁搏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14171,7 +14172,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合兴</t>
@@ -14199,7 +14200,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>红星</t>
@@ -14227,11 +14228,11 @@
       </rPr>
       <t xml:space="preserve"> LRC)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>樂山無線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14256,7 +14257,7 @@
       </rPr>
       <t>ST)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>先科ST</t>
@@ -14284,7 +14285,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>常州兴勤</t>
@@ -14312,7 +14313,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>厦门宏发</t>
@@ -14340,7 +14341,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>旭程电子</t>
@@ -14368,7 +14369,7 @@
       </rPr>
       <t>)_8MHz</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>晶科鑫</t>
@@ -14396,7 +14397,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>扬州扬杰</t>
@@ -14424,22 +14425,22 @@
       </rPr>
       <t>) MOV</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>君耀</t>
   </si>
   <si>
     <t>LMBT3904LT1G (樂山)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2A/60V, DO-214AA (SMB);SS26(扬州扬杰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L1N4148WT1G(乐山)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>乐山</t>
@@ -14449,137 +14450,137 @@
   </si>
   <si>
     <t>CJ78M05 / LDO / (江蘇長電)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>江蘇長電</t>
   </si>
   <si>
     <t>KDS-1206_翠绿色(长兴科迪)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长兴科迪</t>
   </si>
   <si>
     <t>GS10M(扬州扬杰)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LMSZ5248BT1G(乐山)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第8碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X7R %數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X5R %數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NPO %數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>220n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>330p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1000P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14640,7 +14641,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14701,7 +14702,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14779,7 +14780,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14857,7 +14858,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14935,7 +14936,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -14995,7 +14996,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15056,7 +15057,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15117,7 +15118,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15178,7 +15179,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15239,7 +15240,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15300,7 +15301,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15361,7 +15362,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15422,7 +15423,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15483,7 +15484,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15544,7 +15545,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15605,7 +15606,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15666,7 +15667,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15727,7 +15728,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15788,7 +15789,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15849,7 +15850,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15910,7 +15911,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -15971,7 +15972,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16032,7 +16033,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16093,7 +16094,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16154,7 +16155,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16215,7 +16216,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16276,7 +16277,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16337,7 +16338,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16398,7 +16399,7 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16459,59 +16460,59 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 橋堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>%數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>零件名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      B ± 0.10pF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      C ± 0.25pF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      D ± 0.50pF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      F ± 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      G ± 2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      J ± 5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      K ± 10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      M ± 20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>      F　± 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16534,7 +16535,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16557,7 +16558,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16580,7 +16581,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -16597,23 +16598,107 @@
       </rPr>
       <t>Ω</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴻瓅科技有限公司</t>
+  </si>
+  <si>
+    <t>TWS00078</t>
+  </si>
+  <si>
+    <t>高柏科技股份有限公司</t>
+  </si>
+  <si>
+    <t>TWS00016</t>
+  </si>
+  <si>
+    <t>飛利特(上海)智能科技有限公司 Flit Technology</t>
+  </si>
+  <si>
+    <t>CNS00001</t>
+  </si>
+  <si>
+    <t>錞谷電子有限公司</t>
+  </si>
+  <si>
+    <t>TWS00027</t>
+  </si>
+  <si>
+    <t>維勳螺絲股份有限公司</t>
+  </si>
+  <si>
+    <t>TWS00033</t>
+  </si>
+  <si>
+    <t>統鉞股份有限公司 Maxtron (三菱代理)</t>
+  </si>
+  <si>
+    <t>TWS00025</t>
+  </si>
+  <si>
+    <t>穩悳電子工業股份有限公司</t>
+  </si>
+  <si>
+    <t>TWS00026</t>
+  </si>
+  <si>
+    <t>棚馳企業有限公司</t>
+  </si>
+  <si>
+    <t>TWS00072</t>
+  </si>
+  <si>
+    <t>東莞市仁搏電子有限公司</t>
+  </si>
+  <si>
+    <t>CNS00016</t>
+  </si>
+  <si>
+    <t>廣為科技股份有限公司Quantek Technology co.,</t>
+  </si>
+  <si>
+    <t>TWS00045</t>
+  </si>
+  <si>
+    <t>台灣天河星科技有限公司</t>
+  </si>
+  <si>
+    <t>TWS00073</t>
+  </si>
+  <si>
+    <t>佰祥電子有限公司 WIIWELL ELECTRONIC LTD.</t>
+  </si>
+  <si>
+    <t>TWS00008</t>
+  </si>
+  <si>
+    <t>2024/6/25 ERP 供應商編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17657,827 +17742,840 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="60" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="60" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="59" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 5" xfId="4" xr:uid="{F1BFB0B1-6CF5-4627-A079-7640A8585916}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -18762,11 +18860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W311"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" x14ac:dyDescent="0.3"/>
@@ -18887,16 +18985,16 @@
       <c r="G3" s="193" t="s">
         <v>3320</v>
       </c>
-      <c r="H3" s="263">
+      <c r="H3" s="275">
         <v>1</v>
       </c>
-      <c r="I3" s="263" t="s">
+      <c r="I3" s="275" t="s">
         <v>2747</v>
       </c>
-      <c r="J3" s="266" t="s">
+      <c r="J3" s="278" t="s">
         <v>2752</v>
       </c>
-      <c r="K3" s="266" t="s">
+      <c r="K3" s="278" t="s">
         <v>2748</v>
       </c>
       <c r="L3" s="250">
@@ -18953,10 +19051,10 @@
       <c r="G4" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="267"/>
-      <c r="K4" s="267"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
       <c r="L4" s="252">
         <v>2</v>
       </c>
@@ -19011,10 +19109,10 @@
       <c r="G5" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
       <c r="L5" s="252">
         <v>3</v>
       </c>
@@ -19069,10 +19167,10 @@
       <c r="G6" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="267"/>
-      <c r="K6" s="267"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
       <c r="L6" s="252">
         <v>4</v>
       </c>
@@ -19127,10 +19225,10 @@
       <c r="G7" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="267"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
       <c r="L7" s="252">
         <v>5</v>
       </c>
@@ -19185,10 +19283,10 @@
       <c r="G8" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="267"/>
-      <c r="K8" s="267"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="279"/>
       <c r="L8" s="252">
         <v>6</v>
       </c>
@@ -19243,10 +19341,10 @@
       <c r="G9" s="193" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="267"/>
+      <c r="H9" s="276"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="279"/>
+      <c r="K9" s="279"/>
       <c r="L9" s="252">
         <v>7</v>
       </c>
@@ -19301,10 +19399,10 @@
       <c r="G10" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="264"/>
-      <c r="I10" s="264"/>
-      <c r="J10" s="267"/>
-      <c r="K10" s="267"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="279"/>
+      <c r="K10" s="279"/>
       <c r="L10" s="252">
         <v>8</v>
       </c>
@@ -19359,10 +19457,10 @@
       <c r="G11" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="264"/>
-      <c r="I11" s="264"/>
-      <c r="J11" s="267"/>
-      <c r="K11" s="267"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="279"/>
+      <c r="K11" s="279"/>
       <c r="L11" s="252">
         <v>9</v>
       </c>
@@ -19413,10 +19511,10 @@
       <c r="G12" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="264"/>
-      <c r="I12" s="264"/>
-      <c r="J12" s="267"/>
-      <c r="K12" s="267"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="276"/>
+      <c r="J12" s="279"/>
+      <c r="K12" s="279"/>
       <c r="L12" s="252" t="s">
         <v>10</v>
       </c>
@@ -19467,10 +19565,10 @@
       <c r="G13" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="264"/>
-      <c r="I13" s="264"/>
-      <c r="J13" s="267"/>
-      <c r="K13" s="267"/>
+      <c r="H13" s="276"/>
+      <c r="I13" s="276"/>
+      <c r="J13" s="279"/>
+      <c r="K13" s="279"/>
       <c r="L13" s="252" t="s">
         <v>70</v>
       </c>
@@ -19521,10 +19619,10 @@
       <c r="G14" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="264"/>
-      <c r="I14" s="264"/>
-      <c r="J14" s="267"/>
-      <c r="K14" s="267"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="276"/>
+      <c r="J14" s="279"/>
+      <c r="K14" s="279"/>
       <c r="L14" s="252" t="s">
         <v>2752</v>
       </c>
@@ -19563,10 +19661,10 @@
       <c r="E15" s="192"/>
       <c r="F15" s="192"/>
       <c r="G15" s="193"/>
-      <c r="H15" s="264"/>
-      <c r="I15" s="264"/>
-      <c r="J15" s="267"/>
-      <c r="K15" s="267"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="279"/>
+      <c r="K15" s="279"/>
       <c r="L15" s="252" t="s">
         <v>3270</v>
       </c>
@@ -19593,10 +19691,10 @@
       <c r="E16" s="192"/>
       <c r="F16" s="192"/>
       <c r="G16" s="193"/>
-      <c r="H16" s="264"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="267"/>
-      <c r="K16" s="267"/>
+      <c r="H16" s="276"/>
+      <c r="I16" s="276"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="279"/>
       <c r="L16" s="252" t="s">
         <v>3271</v>
       </c>
@@ -19621,10 +19719,10 @@
       <c r="E17" s="192"/>
       <c r="F17" s="192"/>
       <c r="G17" s="193"/>
-      <c r="H17" s="264"/>
-      <c r="I17" s="264"/>
-      <c r="J17" s="267"/>
-      <c r="K17" s="267"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="276"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="279"/>
       <c r="L17" s="252" t="s">
         <v>3272</v>
       </c>
@@ -19649,10 +19747,10 @@
       <c r="E18" s="192"/>
       <c r="F18" s="192"/>
       <c r="G18" s="193"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="264"/>
-      <c r="J18" s="267"/>
-      <c r="K18" s="267"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="276"/>
+      <c r="J18" s="279"/>
+      <c r="K18" s="279"/>
       <c r="L18" s="252" t="s">
         <v>3273</v>
       </c>
@@ -19677,10 +19775,10 @@
       <c r="E19" s="192"/>
       <c r="F19" s="192"/>
       <c r="G19" s="193"/>
-      <c r="H19" s="264"/>
-      <c r="I19" s="264"/>
-      <c r="J19" s="267"/>
-      <c r="K19" s="267"/>
+      <c r="H19" s="276"/>
+      <c r="I19" s="276"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="279"/>
       <c r="L19" s="252" t="s">
         <v>3274</v>
       </c>
@@ -19705,10 +19803,10 @@
       <c r="E20" s="192"/>
       <c r="F20" s="192"/>
       <c r="G20" s="193"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="264"/>
-      <c r="J20" s="267"/>
-      <c r="K20" s="267"/>
+      <c r="H20" s="276"/>
+      <c r="I20" s="276"/>
+      <c r="J20" s="279"/>
+      <c r="K20" s="279"/>
       <c r="L20" s="252" t="s">
         <v>3275</v>
       </c>
@@ -19733,10 +19831,10 @@
       <c r="E21" s="192"/>
       <c r="F21" s="192"/>
       <c r="G21" s="193"/>
-      <c r="H21" s="265"/>
-      <c r="I21" s="265"/>
-      <c r="J21" s="268"/>
-      <c r="K21" s="268"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
       <c r="L21" s="252" t="s">
         <v>3276</v>
       </c>
@@ -19836,7 +19934,7 @@
       <c r="J23" s="24" t="s">
         <v>2753</v>
       </c>
-      <c r="K23" s="260" t="s">
+      <c r="K23" s="272" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="250">
@@ -19890,7 +19988,7 @@
       <c r="H24" s="29"/>
       <c r="I24" s="31"/>
       <c r="J24" s="114"/>
-      <c r="K24" s="261"/>
+      <c r="K24" s="273"/>
       <c r="L24" s="252">
         <v>2</v>
       </c>
@@ -19942,7 +20040,7 @@
       <c r="H25" s="29"/>
       <c r="I25" s="32"/>
       <c r="J25" s="114"/>
-      <c r="K25" s="261"/>
+      <c r="K25" s="273"/>
       <c r="L25" s="252">
         <v>3</v>
       </c>
@@ -19990,7 +20088,7 @@
       <c r="H26" s="29"/>
       <c r="I26" s="32"/>
       <c r="J26" s="114"/>
-      <c r="K26" s="261"/>
+      <c r="K26" s="273"/>
       <c r="L26" s="252">
         <v>4</v>
       </c>
@@ -20038,7 +20136,7 @@
       <c r="H27" s="29"/>
       <c r="I27" s="32"/>
       <c r="J27" s="114"/>
-      <c r="K27" s="261"/>
+      <c r="K27" s="273"/>
       <c r="L27" s="252">
         <v>5</v>
       </c>
@@ -20086,7 +20184,7 @@
       <c r="H28" s="29"/>
       <c r="I28" s="32"/>
       <c r="J28" s="114"/>
-      <c r="K28" s="261"/>
+      <c r="K28" s="273"/>
       <c r="L28" s="252">
         <v>6</v>
       </c>
@@ -20132,7 +20230,7 @@
       <c r="H29" s="29"/>
       <c r="I29" s="32"/>
       <c r="J29" s="114"/>
-      <c r="K29" s="261"/>
+      <c r="K29" s="273"/>
       <c r="L29" s="252">
         <v>7</v>
       </c>
@@ -20180,7 +20278,7 @@
       <c r="H30" s="29"/>
       <c r="I30" s="32"/>
       <c r="J30" s="114"/>
-      <c r="K30" s="261"/>
+      <c r="K30" s="273"/>
       <c r="L30" s="252">
         <v>8</v>
       </c>
@@ -20230,7 +20328,7 @@
       <c r="H31" s="29"/>
       <c r="I31" s="32"/>
       <c r="J31" s="114"/>
-      <c r="K31" s="261"/>
+      <c r="K31" s="273"/>
       <c r="L31" s="252">
         <v>9</v>
       </c>
@@ -20280,7 +20378,7 @@
       <c r="H32" s="29"/>
       <c r="I32" s="32"/>
       <c r="J32" s="114"/>
-      <c r="K32" s="261"/>
+      <c r="K32" s="273"/>
       <c r="L32" s="252" t="s">
         <v>10</v>
       </c>
@@ -20322,7 +20420,7 @@
       <c r="H33" s="29"/>
       <c r="I33" s="32"/>
       <c r="J33" s="114"/>
-      <c r="K33" s="261"/>
+      <c r="K33" s="273"/>
       <c r="L33" s="252" t="s">
         <v>70</v>
       </c>
@@ -20362,7 +20460,7 @@
       <c r="H34" s="29"/>
       <c r="I34" s="32"/>
       <c r="J34" s="114"/>
-      <c r="K34" s="261"/>
+      <c r="K34" s="273"/>
       <c r="L34" s="252" t="s">
         <v>2752</v>
       </c>
@@ -20402,7 +20500,7 @@
       <c r="H35" s="29"/>
       <c r="I35" s="32"/>
       <c r="J35" s="114"/>
-      <c r="K35" s="261"/>
+      <c r="K35" s="273"/>
       <c r="L35" s="252" t="s">
         <v>3270</v>
       </c>
@@ -20442,7 +20540,7 @@
       <c r="H36" s="29"/>
       <c r="I36" s="32"/>
       <c r="J36" s="114"/>
-      <c r="K36" s="261"/>
+      <c r="K36" s="273"/>
       <c r="L36" s="252" t="s">
         <v>3271</v>
       </c>
@@ -20482,7 +20580,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="32"/>
       <c r="J37" s="114"/>
-      <c r="K37" s="261"/>
+      <c r="K37" s="273"/>
       <c r="L37" s="252" t="s">
         <v>3272</v>
       </c>
@@ -20522,7 +20620,7 @@
       <c r="H38" s="29"/>
       <c r="I38" s="32"/>
       <c r="J38" s="114"/>
-      <c r="K38" s="261"/>
+      <c r="K38" s="273"/>
       <c r="L38" s="252" t="s">
         <v>3273</v>
       </c>
@@ -20562,7 +20660,7 @@
       <c r="H39" s="29"/>
       <c r="I39" s="32"/>
       <c r="J39" s="114"/>
-      <c r="K39" s="261"/>
+      <c r="K39" s="273"/>
       <c r="L39" s="252" t="s">
         <v>3274</v>
       </c>
@@ -20602,7 +20700,7 @@
       <c r="H40" s="29"/>
       <c r="I40" s="32"/>
       <c r="J40" s="114"/>
-      <c r="K40" s="261"/>
+      <c r="K40" s="273"/>
       <c r="L40" s="252" t="s">
         <v>3275</v>
       </c>
@@ -20642,7 +20740,7 @@
       <c r="H41" s="29"/>
       <c r="I41" s="32"/>
       <c r="J41" s="114"/>
-      <c r="K41" s="261"/>
+      <c r="K41" s="273"/>
       <c r="L41" s="252" t="s">
         <v>3276</v>
       </c>
@@ -20682,7 +20780,7 @@
       <c r="H42" s="29"/>
       <c r="I42" s="32"/>
       <c r="J42" s="114"/>
-      <c r="K42" s="261"/>
+      <c r="K42" s="273"/>
       <c r="L42" s="103"/>
       <c r="M42" s="103"/>
       <c r="N42" s="103"/>
@@ -20718,7 +20816,7 @@
       <c r="H43" s="29"/>
       <c r="I43" s="32"/>
       <c r="J43" s="114"/>
-      <c r="K43" s="261"/>
+      <c r="K43" s="273"/>
       <c r="L43" s="103"/>
       <c r="M43" s="103"/>
       <c r="N43" s="103"/>
@@ -20754,7 +20852,7 @@
       <c r="H44" s="29"/>
       <c r="I44" s="32"/>
       <c r="J44" s="114"/>
-      <c r="K44" s="261"/>
+      <c r="K44" s="273"/>
       <c r="L44" s="103"/>
       <c r="M44" s="103"/>
       <c r="N44" s="103"/>
@@ -20790,7 +20888,7 @@
       <c r="H45" s="29"/>
       <c r="I45" s="32"/>
       <c r="J45" s="114"/>
-      <c r="K45" s="261"/>
+      <c r="K45" s="273"/>
       <c r="L45" s="103"/>
       <c r="M45" s="103"/>
       <c r="N45" s="103"/>
@@ -20826,7 +20924,7 @@
       <c r="H46" s="29"/>
       <c r="I46" s="32"/>
       <c r="J46" s="114"/>
-      <c r="K46" s="261"/>
+      <c r="K46" s="273"/>
       <c r="L46" s="103"/>
       <c r="M46" s="103"/>
       <c r="N46" s="103"/>
@@ -20862,7 +20960,7 @@
       <c r="H47" s="29"/>
       <c r="I47" s="32"/>
       <c r="J47" s="114"/>
-      <c r="K47" s="261"/>
+      <c r="K47" s="273"/>
       <c r="L47" s="103"/>
       <c r="M47" s="103"/>
       <c r="N47" s="103"/>
@@ -20898,7 +20996,7 @@
       <c r="H48" s="29"/>
       <c r="I48" s="32"/>
       <c r="J48" s="114"/>
-      <c r="K48" s="261"/>
+      <c r="K48" s="273"/>
       <c r="L48" s="103"/>
       <c r="M48" s="103"/>
       <c r="N48" s="103"/>
@@ -20934,7 +21032,7 @@
       <c r="H49" s="29"/>
       <c r="I49" s="32"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="261"/>
+      <c r="K49" s="273"/>
       <c r="L49" s="103"/>
       <c r="M49" s="103"/>
       <c r="N49" s="103"/>
@@ -20970,7 +21068,7 @@
       <c r="H50" s="29"/>
       <c r="I50" s="32"/>
       <c r="J50" s="114"/>
-      <c r="K50" s="261"/>
+      <c r="K50" s="273"/>
       <c r="L50" s="103"/>
       <c r="M50" s="103"/>
       <c r="N50" s="103"/>
@@ -21006,7 +21104,7 @@
       <c r="H51" s="29"/>
       <c r="I51" s="32"/>
       <c r="J51" s="114"/>
-      <c r="K51" s="261"/>
+      <c r="K51" s="273"/>
       <c r="L51" s="103"/>
       <c r="M51" s="103"/>
       <c r="N51" s="103"/>
@@ -21042,7 +21140,7 @@
       <c r="H52" s="29"/>
       <c r="I52" s="32"/>
       <c r="J52" s="114"/>
-      <c r="K52" s="261"/>
+      <c r="K52" s="273"/>
       <c r="L52" s="103"/>
       <c r="M52" s="103"/>
       <c r="N52" s="103"/>
@@ -21078,7 +21176,7 @@
       <c r="H53" s="29"/>
       <c r="I53" s="32"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="261"/>
+      <c r="K53" s="273"/>
       <c r="L53" s="103"/>
       <c r="M53" s="103"/>
       <c r="N53" s="103"/>
@@ -21114,7 +21212,7 @@
       <c r="H54" s="29"/>
       <c r="I54" s="32"/>
       <c r="J54" s="114"/>
-      <c r="K54" s="261"/>
+      <c r="K54" s="273"/>
       <c r="L54" s="103"/>
       <c r="M54" s="103"/>
       <c r="N54" s="103"/>
@@ -21150,7 +21248,7 @@
       <c r="H55" s="29"/>
       <c r="I55" s="32"/>
       <c r="J55" s="114"/>
-      <c r="K55" s="261"/>
+      <c r="K55" s="273"/>
       <c r="L55" s="103"/>
       <c r="M55" s="103"/>
       <c r="N55" s="103"/>
@@ -21186,7 +21284,7 @@
       <c r="H56" s="29"/>
       <c r="I56" s="32"/>
       <c r="J56" s="114"/>
-      <c r="K56" s="261"/>
+      <c r="K56" s="273"/>
       <c r="L56" s="103"/>
       <c r="M56" s="103"/>
       <c r="N56" s="103"/>
@@ -21222,7 +21320,7 @@
       <c r="H57" s="173"/>
       <c r="I57" s="33"/>
       <c r="J57" s="117"/>
-      <c r="K57" s="262"/>
+      <c r="K57" s="274"/>
       <c r="L57" s="103"/>
       <c r="M57" s="103"/>
       <c r="N57" s="103"/>
@@ -21411,10 +21509,10 @@
       <c r="G61" s="192" t="s">
         <v>2854</v>
       </c>
-      <c r="H61" s="275">
+      <c r="H61" s="266">
         <v>1</v>
       </c>
-      <c r="I61" s="278" t="s">
+      <c r="I61" s="269" t="s">
         <v>2746</v>
       </c>
       <c r="J61" s="68" t="s">
@@ -21463,8 +21561,8 @@
       <c r="G62" s="192" t="s">
         <v>1761</v>
       </c>
-      <c r="H62" s="276"/>
-      <c r="I62" s="279"/>
+      <c r="H62" s="267"/>
+      <c r="I62" s="270"/>
       <c r="J62" s="103"/>
       <c r="K62" s="103"/>
       <c r="L62" s="103"/>
@@ -21503,8 +21601,8 @@
       <c r="G63" s="192" t="s">
         <v>459</v>
       </c>
-      <c r="H63" s="276"/>
-      <c r="I63" s="279"/>
+      <c r="H63" s="267"/>
+      <c r="I63" s="270"/>
       <c r="J63" s="103"/>
       <c r="K63" s="103"/>
       <c r="L63" s="103"/>
@@ -21543,8 +21641,8 @@
       <c r="G64" s="192" t="s">
         <v>1765</v>
       </c>
-      <c r="H64" s="277"/>
-      <c r="I64" s="280"/>
+      <c r="H64" s="268"/>
+      <c r="I64" s="271"/>
       <c r="J64" s="103"/>
       <c r="K64" s="103"/>
       <c r="L64" s="103"/>
@@ -21735,10 +21833,10 @@
       <c r="G68" s="192" t="s">
         <v>1772</v>
       </c>
-      <c r="H68" s="275">
+      <c r="H68" s="266">
         <v>1</v>
       </c>
-      <c r="I68" s="278" t="s">
+      <c r="I68" s="269" t="s">
         <v>2746</v>
       </c>
       <c r="J68" s="68" t="s">
@@ -21791,8 +21889,8 @@
       <c r="G69" s="192" t="s">
         <v>617</v>
       </c>
-      <c r="H69" s="276"/>
-      <c r="I69" s="279"/>
+      <c r="H69" s="267"/>
+      <c r="I69" s="270"/>
       <c r="J69" s="103"/>
       <c r="K69" s="103"/>
       <c r="L69" s="103"/>
@@ -21835,8 +21933,8 @@
       <c r="G70" s="192" t="s">
         <v>1776</v>
       </c>
-      <c r="H70" s="276"/>
-      <c r="I70" s="279"/>
+      <c r="H70" s="267"/>
+      <c r="I70" s="270"/>
       <c r="J70" s="103"/>
       <c r="K70" s="103"/>
       <c r="L70" s="103"/>
@@ -21875,8 +21973,8 @@
       <c r="G71" s="192" t="s">
         <v>1779</v>
       </c>
-      <c r="H71" s="277"/>
-      <c r="I71" s="280"/>
+      <c r="H71" s="268"/>
+      <c r="I71" s="271"/>
       <c r="J71" s="103"/>
       <c r="K71" s="103"/>
       <c r="L71" s="103"/>
@@ -21965,10 +22063,10 @@
       <c r="G73" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="H73" s="275">
+      <c r="H73" s="266">
         <v>1</v>
       </c>
-      <c r="I73" s="278" t="s">
+      <c r="I73" s="269" t="s">
         <v>2746</v>
       </c>
       <c r="J73" s="68" t="s">
@@ -22017,8 +22115,8 @@
       <c r="G74" s="192" t="s">
         <v>362</v>
       </c>
-      <c r="H74" s="277"/>
-      <c r="I74" s="280"/>
+      <c r="H74" s="268"/>
+      <c r="I74" s="271"/>
       <c r="J74" s="103"/>
       <c r="K74" s="103"/>
       <c r="L74" s="103"/>
@@ -22311,10 +22409,10 @@
       <c r="G80" s="192" t="s">
         <v>1797</v>
       </c>
-      <c r="H80" s="275">
+      <c r="H80" s="266">
         <v>1</v>
       </c>
-      <c r="I80" s="278" t="s">
+      <c r="I80" s="269" t="s">
         <v>2746</v>
       </c>
       <c r="J80" s="68" t="s">
@@ -22367,8 +22465,8 @@
       <c r="G81" s="192" t="s">
         <v>1799</v>
       </c>
-      <c r="H81" s="277"/>
-      <c r="I81" s="280"/>
+      <c r="H81" s="268"/>
+      <c r="I81" s="271"/>
       <c r="J81" s="103"/>
       <c r="K81" s="103"/>
       <c r="L81" s="103"/>
@@ -22669,10 +22767,10 @@
       <c r="G87" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="H87" s="275">
+      <c r="H87" s="266">
         <v>1</v>
       </c>
-      <c r="I87" s="278" t="s">
+      <c r="I87" s="269" t="s">
         <v>2746</v>
       </c>
       <c r="J87" s="103" t="s">
@@ -22725,8 +22823,8 @@
       <c r="G88" s="192" t="s">
         <v>602</v>
       </c>
-      <c r="H88" s="277"/>
-      <c r="I88" s="280"/>
+      <c r="H88" s="268"/>
+      <c r="I88" s="271"/>
       <c r="J88" s="103"/>
       <c r="K88" s="103"/>
       <c r="L88" s="103"/>
@@ -23243,10 +23341,10 @@
       <c r="G99" s="192" t="s">
         <v>1871</v>
       </c>
-      <c r="H99" s="269">
+      <c r="H99" s="260">
         <v>2</v>
       </c>
-      <c r="I99" s="272" t="s">
+      <c r="I99" s="263" t="s">
         <v>2758</v>
       </c>
       <c r="J99" s="103">
@@ -23299,8 +23397,8 @@
       <c r="G100" s="192" t="s">
         <v>2696</v>
       </c>
-      <c r="H100" s="270"/>
-      <c r="I100" s="273"/>
+      <c r="H100" s="261"/>
+      <c r="I100" s="264"/>
       <c r="J100" s="103"/>
       <c r="K100" s="103"/>
       <c r="L100" s="103"/>
@@ -23343,8 +23441,8 @@
       <c r="G101" s="192" t="s">
         <v>1880</v>
       </c>
-      <c r="H101" s="270"/>
-      <c r="I101" s="273"/>
+      <c r="H101" s="261"/>
+      <c r="I101" s="264"/>
       <c r="J101" s="103"/>
       <c r="K101" s="103"/>
       <c r="L101" s="103"/>
@@ -23383,8 +23481,8 @@
       <c r="G102" s="192" t="s">
         <v>1883</v>
       </c>
-      <c r="H102" s="270"/>
-      <c r="I102" s="273"/>
+      <c r="H102" s="261"/>
+      <c r="I102" s="264"/>
       <c r="J102" s="103"/>
       <c r="K102" s="103"/>
       <c r="L102" s="103"/>
@@ -23423,8 +23521,8 @@
       <c r="G103" s="192" t="s">
         <v>1886</v>
       </c>
-      <c r="H103" s="270"/>
-      <c r="I103" s="273"/>
+      <c r="H103" s="261"/>
+      <c r="I103" s="264"/>
       <c r="J103" s="103"/>
       <c r="K103" s="103"/>
       <c r="L103" s="103"/>
@@ -23463,8 +23561,8 @@
       <c r="G104" s="192" t="s">
         <v>1889</v>
       </c>
-      <c r="H104" s="270"/>
-      <c r="I104" s="273"/>
+      <c r="H104" s="261"/>
+      <c r="I104" s="264"/>
       <c r="J104" s="103"/>
       <c r="K104" s="103"/>
       <c r="L104" s="103"/>
@@ -23503,8 +23601,8 @@
       <c r="G105" s="192" t="s">
         <v>1892</v>
       </c>
-      <c r="H105" s="270"/>
-      <c r="I105" s="273"/>
+      <c r="H105" s="261"/>
+      <c r="I105" s="264"/>
       <c r="J105" s="103"/>
       <c r="K105" s="103"/>
       <c r="L105" s="103"/>
@@ -23543,8 +23641,8 @@
       <c r="G106" s="192" t="s">
         <v>1895</v>
       </c>
-      <c r="H106" s="270"/>
-      <c r="I106" s="273"/>
+      <c r="H106" s="261"/>
+      <c r="I106" s="264"/>
       <c r="J106" s="103"/>
       <c r="K106" s="103"/>
       <c r="L106" s="103"/>
@@ -23583,8 +23681,8 @@
       <c r="G107" s="192" t="s">
         <v>1874</v>
       </c>
-      <c r="H107" s="270"/>
-      <c r="I107" s="273"/>
+      <c r="H107" s="261"/>
+      <c r="I107" s="264"/>
       <c r="J107" s="103"/>
       <c r="K107" s="103"/>
       <c r="L107" s="103"/>
@@ -23623,8 +23721,8 @@
       <c r="G108" s="192" t="s">
         <v>1903</v>
       </c>
-      <c r="H108" s="270"/>
-      <c r="I108" s="273"/>
+      <c r="H108" s="261"/>
+      <c r="I108" s="264"/>
       <c r="J108" s="103"/>
       <c r="K108" s="103"/>
       <c r="L108" s="103"/>
@@ -23663,8 +23761,8 @@
       <c r="G109" s="192" t="s">
         <v>466</v>
       </c>
-      <c r="H109" s="270"/>
-      <c r="I109" s="273"/>
+      <c r="H109" s="261"/>
+      <c r="I109" s="264"/>
       <c r="J109" s="103"/>
       <c r="K109" s="103"/>
       <c r="L109" s="103"/>
@@ -23703,8 +23801,8 @@
       <c r="G110" s="192" t="s">
         <v>1303</v>
       </c>
-      <c r="H110" s="270"/>
-      <c r="I110" s="273"/>
+      <c r="H110" s="261"/>
+      <c r="I110" s="264"/>
       <c r="J110" s="103"/>
       <c r="K110" s="103"/>
       <c r="L110" s="103"/>
@@ -23743,8 +23841,8 @@
       <c r="G111" s="192" t="s">
         <v>1906</v>
       </c>
-      <c r="H111" s="271"/>
-      <c r="I111" s="274"/>
+      <c r="H111" s="262"/>
+      <c r="I111" s="265"/>
       <c r="J111" s="103"/>
       <c r="K111" s="103"/>
       <c r="L111" s="103"/>
@@ -27736,6 +27834,11 @@
     <row r="311" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K23:K57"/>
+    <mergeCell ref="H3:H21"/>
+    <mergeCell ref="I3:I21"/>
+    <mergeCell ref="J3:J21"/>
+    <mergeCell ref="K3:K21"/>
     <mergeCell ref="H99:H111"/>
     <mergeCell ref="I99:I111"/>
     <mergeCell ref="H61:H64"/>
@@ -27748,13 +27851,8 @@
     <mergeCell ref="I87:I88"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="I80:I81"/>
-    <mergeCell ref="K23:K57"/>
-    <mergeCell ref="H3:H21"/>
-    <mergeCell ref="I3:I21"/>
-    <mergeCell ref="J3:J21"/>
-    <mergeCell ref="K3:K21"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -27858,16 +27956,16 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="263">
+      <c r="B4" s="275">
         <v>1</v>
       </c>
       <c r="C4" s="281" t="s">
         <v>2747</v>
       </c>
-      <c r="D4" s="266" t="s">
+      <c r="D4" s="278" t="s">
         <v>2752</v>
       </c>
-      <c r="E4" s="266" t="s">
+      <c r="E4" s="278" t="s">
         <v>2748</v>
       </c>
       <c r="F4" s="250">
@@ -27918,10 +28016,10 @@
       <c r="U4" s="53"/>
     </row>
     <row r="5" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="264"/>
+      <c r="B5" s="276"/>
       <c r="C5" s="282"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
       <c r="F5" s="252">
         <v>2</v>
       </c>
@@ -27970,10 +28068,10 @@
       <c r="U5" s="55"/>
     </row>
     <row r="6" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="264"/>
+      <c r="B6" s="276"/>
       <c r="C6" s="282"/>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
       <c r="F6" s="252">
         <v>3</v>
       </c>
@@ -28022,10 +28120,10 @@
       <c r="U6" s="55"/>
     </row>
     <row r="7" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="264"/>
+      <c r="B7" s="276"/>
       <c r="C7" s="282"/>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
       <c r="F7" s="252">
         <v>4</v>
       </c>
@@ -28074,10 +28172,10 @@
       <c r="U7" s="55"/>
     </row>
     <row r="8" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="264"/>
+      <c r="B8" s="276"/>
       <c r="C8" s="282"/>
-      <c r="D8" s="267"/>
-      <c r="E8" s="267"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="279"/>
       <c r="F8" s="252">
         <v>5</v>
       </c>
@@ -28126,10 +28224,10 @@
       <c r="U8" s="55"/>
     </row>
     <row r="9" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="264"/>
+      <c r="B9" s="276"/>
       <c r="C9" s="282"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="279"/>
       <c r="F9" s="252">
         <v>6</v>
       </c>
@@ -28178,10 +28276,10 @@
       <c r="U9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="264"/>
+      <c r="B10" s="276"/>
       <c r="C10" s="282"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
       <c r="F10" s="252">
         <v>7</v>
       </c>
@@ -28230,10 +28328,10 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="264"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="282"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
       <c r="F11" s="252">
         <v>8</v>
       </c>
@@ -28282,10 +28380,10 @@
       <c r="U11" s="55"/>
     </row>
     <row r="12" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="264"/>
+      <c r="B12" s="276"/>
       <c r="C12" s="282"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
       <c r="F12" s="252">
         <v>9</v>
       </c>
@@ -28324,10 +28422,10 @@
       <c r="U12" s="55"/>
     </row>
     <row r="13" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="264"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="282"/>
-      <c r="D13" s="267"/>
-      <c r="E13" s="267"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
       <c r="F13" s="252" t="s">
         <v>10</v>
       </c>
@@ -28366,10 +28464,10 @@
       <c r="U13" s="55"/>
     </row>
     <row r="14" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="264"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="282"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="267"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
       <c r="F14" s="252" t="s">
         <v>70</v>
       </c>
@@ -28404,10 +28502,10 @@
       <c r="U14" s="55"/>
     </row>
     <row r="15" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="264"/>
+      <c r="B15" s="276"/>
       <c r="C15" s="282"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="279"/>
       <c r="F15" s="252" t="s">
         <v>2752</v>
       </c>
@@ -28442,10 +28540,10 @@
       <c r="U15" s="55"/>
     </row>
     <row r="16" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="264"/>
+      <c r="B16" s="276"/>
       <c r="C16" s="282"/>
-      <c r="D16" s="267"/>
-      <c r="E16" s="267"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="279"/>
       <c r="F16" s="252" t="s">
         <v>3270</v>
       </c>
@@ -28468,10 +28566,10 @@
       <c r="U16" s="248"/>
     </row>
     <row r="17" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="264"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="282"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="267"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
       <c r="F17" s="252" t="s">
         <v>3271</v>
       </c>
@@ -28494,10 +28592,10 @@
       <c r="U17" s="248"/>
     </row>
     <row r="18" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="264"/>
+      <c r="B18" s="276"/>
       <c r="C18" s="282"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
       <c r="F18" s="252" t="s">
         <v>3272</v>
       </c>
@@ -28520,10 +28618,10 @@
       <c r="U18" s="248"/>
     </row>
     <row r="19" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="264"/>
+      <c r="B19" s="276"/>
       <c r="C19" s="282"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="279"/>
       <c r="F19" s="252" t="s">
         <v>3273</v>
       </c>
@@ -28546,10 +28644,10 @@
       <c r="U19" s="248"/>
     </row>
     <row r="20" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="264"/>
+      <c r="B20" s="276"/>
       <c r="C20" s="282"/>
-      <c r="D20" s="267"/>
-      <c r="E20" s="267"/>
+      <c r="D20" s="279"/>
+      <c r="E20" s="279"/>
       <c r="F20" s="252" t="s">
         <v>3274</v>
       </c>
@@ -28572,10 +28670,10 @@
       <c r="U20" s="248"/>
     </row>
     <row r="21" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="264"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="282"/>
-      <c r="D21" s="267"/>
-      <c r="E21" s="267"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="279"/>
       <c r="F21" s="252" t="s">
         <v>3275</v>
       </c>
@@ -28598,10 +28696,10 @@
       <c r="U21" s="248"/>
     </row>
     <row r="22" spans="2:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="265"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="283"/>
-      <c r="D22" s="268"/>
-      <c r="E22" s="268"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="280"/>
       <c r="F22" s="252" t="s">
         <v>3276</v>
       </c>
@@ -28630,7 +28728,7 @@
     <mergeCell ref="D4:D22"/>
     <mergeCell ref="E4:E22"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49416,7 +49514,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -63522,7 +63620,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:B820" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -66083,7 +66181,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -67807,7 +67905,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
 </worksheet>
@@ -68374,7 +68472,7 @@
       <c r="K38" s="225"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -68515,7 +68613,133 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C60E3C-E272-4B72-A4DF-C3E95413624F}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="284" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="284" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="284"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="286" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1" s="286"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="285" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B2" s="285" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="285" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B3" s="285" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="285" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B4" s="285" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="285" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B5" s="285" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="285" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B6" s="285" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="285" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B7" s="285" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="285" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B8" s="285" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="285" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B9" s="285" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="285" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B10" s="285" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="285" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B11" s="285" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="285" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B12" s="285" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="285" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B13" s="285" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>